--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -5,26 +5,32 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata13feb\updated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata20feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9BA095-4C6F-496B-8BB3-E0920297B9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF6FA8F-79B4-4029-B269-735CFACCDABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="8" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
-    <sheet name="GenerateDocument" sheetId="1" r:id="rId1"/>
-    <sheet name="CourtOfficerNotes" sheetId="7" r:id="rId2"/>
-    <sheet name="CourtReports" sheetId="8" r:id="rId3"/>
-    <sheet name="AmendPetition" sheetId="12" r:id="rId4"/>
-    <sheet name="CourtsDocuments" sheetId="13" r:id="rId5"/>
-    <sheet name="CourtMinuteOrders" sheetId="9" r:id="rId6"/>
-    <sheet name="DocumentDistributions" sheetId="10" r:id="rId7"/>
-    <sheet name="RelatedFolios" sheetId="11" r:id="rId8"/>
-    <sheet name="GeneratePetition" sheetId="2" r:id="rId9"/>
-    <sheet name="PetitionAllegation" sheetId="3" r:id="rId10"/>
-    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId11"/>
-    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId12"/>
+    <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
+    <sheet name="CourtWarrents" sheetId="15" r:id="rId2"/>
+    <sheet name="CourtHearings" sheetId="16" r:id="rId3"/>
+    <sheet name="Petition" sheetId="17" r:id="rId4"/>
+    <sheet name="AdHocActivity" sheetId="18" r:id="rId5"/>
+    <sheet name="GenerateDocument" sheetId="1" r:id="rId6"/>
+    <sheet name="CourtOfficerNotes" sheetId="7" r:id="rId7"/>
+    <sheet name="CourtReports" sheetId="8" r:id="rId8"/>
+    <sheet name="AmendPetition" sheetId="12" r:id="rId9"/>
+    <sheet name="CourtsDocuments" sheetId="13" r:id="rId10"/>
+    <sheet name="CourtMinuteOrders" sheetId="9" r:id="rId11"/>
+    <sheet name="DocumentDistributions" sheetId="10" r:id="rId12"/>
+    <sheet name="RelatedReferrals" sheetId="11" r:id="rId13"/>
+    <sheet name="GeneratePetition" sheetId="2" r:id="rId14"/>
+    <sheet name="PetitionAllegation" sheetId="3" r:id="rId15"/>
+    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId16"/>
+    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId17"/>
+    <sheet name="CourtWorkItems" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="238">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -94,6 +100,9 @@
     <t>Interstate Compact On The Placement of Children Request (ICPC 100A)</t>
   </si>
   <si>
+    <t>Interstate Compact Report on Child’s Placement Status (ICPC 100B)</t>
+  </si>
+  <si>
     <t>PARTICIPANTS_PRESENT_IN_COURT</t>
   </si>
   <si>
@@ -397,7 +406,367 @@
     <t>AUDIT_HISTORY_TAB</t>
   </si>
   <si>
-    <t>Interstate Compact Report on Child’s Placement Status (ICPC 100B)</t>
+    <t>COURT_RECORD_EXPAND</t>
+  </si>
+  <si>
+    <t>COURT_CASE</t>
+  </si>
+  <si>
+    <t>DEPENDENCY_COURT_CASE_NUMBER</t>
+  </si>
+  <si>
+    <t>ATTORNEY_NAME</t>
+  </si>
+  <si>
+    <t>DELLNQUENCY_COURT_CASE_NUMBER</t>
+  </si>
+  <si>
+    <t>REASON_TO_REOPEN</t>
+  </si>
+  <si>
+    <t>ASSIGNED_SOCIAL_WORKER</t>
+  </si>
+  <si>
+    <t>CONTACT_METHOD</t>
+  </si>
+  <si>
+    <t>START_DATE</t>
+  </si>
+  <si>
+    <t>END_DATE</t>
+  </si>
+  <si>
+    <t>SYSTEM_CLOSED</t>
+  </si>
+  <si>
+    <t>CAPTURE_COURT_CASE_ID</t>
+  </si>
+  <si>
+    <t>testT4240</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>ASSIGNED_TO</t>
+  </si>
+  <si>
+    <t>WARRANT_SUBMISSION_DATE_TIME</t>
+  </si>
+  <si>
+    <t>FILING_METHOD</t>
+  </si>
+  <si>
+    <t>COURT_RULING</t>
+  </si>
+  <si>
+    <t>APPROVED_AFTER_HOURS</t>
+  </si>
+  <si>
+    <t>COURT_WARRENT_NUMBER</t>
+  </si>
+  <si>
+    <t>HOBBS_SEALED</t>
+  </si>
+  <si>
+    <t>REASON_FOR_CLONING</t>
+  </si>
+  <si>
+    <t>EXPIRATION_DATE</t>
+  </si>
+  <si>
+    <t>WARRANT_RECALLED_DATE</t>
+  </si>
+  <si>
+    <t>RECALLED_METHOD</t>
+  </si>
+  <si>
+    <t>COURT_NOTIFIED</t>
+  </si>
+  <si>
+    <t>COURT_NOTIFIED_DATE</t>
+  </si>
+  <si>
+    <t>CAPTURE_WARRENT_ID</t>
+  </si>
+  <si>
+    <t>VIEWALL</t>
+  </si>
+  <si>
+    <t>DENIAL_DATE_TIME</t>
+  </si>
+  <si>
+    <t>SUBTYPE</t>
+  </si>
+  <si>
+    <t>HEARING_DATE_TIME</t>
+  </si>
+  <si>
+    <t>OTHER_HEARING_SUBTYPE</t>
+  </si>
+  <si>
+    <t>CAPTURE_HEARING_ID</t>
+  </si>
+  <si>
+    <t>HEARING_ID</t>
+  </si>
+  <si>
+    <t>REASON_HEARING_WAS_VACATED</t>
+  </si>
+  <si>
+    <t>DATE_HEARING_WAS_VACATED</t>
+  </si>
+  <si>
+    <t>PETITION_TYPE</t>
+  </si>
+  <si>
+    <t>PETITION_STATUS</t>
+  </si>
+  <si>
+    <t>AMENDMENT_DETAILS</t>
+  </si>
+  <si>
+    <t>AMENDMENT_DATE</t>
+  </si>
+  <si>
+    <t>DATE_OF_RETURN_AMENDED_PETITION_TOCOURT</t>
+  </si>
+  <si>
+    <t>AMENDED_PETITON_SUBMITTED_BY</t>
+  </si>
+  <si>
+    <t>AMENDED_PRTITION_SUBMITTED_DATE</t>
+  </si>
+  <si>
+    <t>FILING_DATE_AND_TIME</t>
+  </si>
+  <si>
+    <t>DUE_DATE_TO_SUBMIT_PETITION_TO_COURT</t>
+  </si>
+  <si>
+    <t>ICWA_100_RECEIVED_DATE</t>
+  </si>
+  <si>
+    <t>ICWA_101_RECEIVED_DATE</t>
+  </si>
+  <si>
+    <t>PETITION_WORK_ITEM_ID</t>
+  </si>
+  <si>
+    <t>testT</t>
+  </si>
+  <si>
+    <t>WIC_300</t>
+  </si>
+  <si>
+    <t>Open-Created</t>
+  </si>
+  <si>
+    <t>AdHOC_ACTIVITY_TYPE</t>
+  </si>
+  <si>
+    <t>AdHOC_ACTIVITY_STATUS</t>
+  </si>
+  <si>
+    <t>HEARING_ORDERED</t>
+  </si>
+  <si>
+    <t>SUPERIOR_COURT</t>
+  </si>
+  <si>
+    <t>JUDICIAL_OFFICER_TITLE</t>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>JUDICIAL_OFFICER</t>
+  </si>
+  <si>
+    <t>REQUEST_DATE</t>
+  </si>
+  <si>
+    <t>OFFICIAL_MINUTE_ORDERS_RELEASED_DATE</t>
+  </si>
+  <si>
+    <t>OFFICIAL_MINUTE_ORDERS_RECEIVED_BY_CARES</t>
+  </si>
+  <si>
+    <t>ADHOC_WORK_ITEM_ID</t>
+  </si>
+  <si>
+    <t>Ex Parte Request</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>COURT_WORK_ITEMS</t>
+  </si>
+  <si>
+    <t>Runaway or Abducted Warrant</t>
+  </si>
+  <si>
+    <t>autoCMworker451 Ccost</t>
+  </si>
+  <si>
+    <t>Continued Detention Hearing</t>
+  </si>
+  <si>
+    <t>COURT_CASE_ID</t>
+  </si>
+  <si>
+    <t>COURT_CASE_ID1</t>
+  </si>
+  <si>
+    <t>RELATED_TAB</t>
+  </si>
+  <si>
+    <t>DETAILS_TAB</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Denied</t>
+  </si>
+  <si>
+    <t>OFFICIAL_NEXT_HEARING_DATE_AND_TIME_VERIFY</t>
+  </si>
+  <si>
+    <t>REASON_FOR_CONTESTED_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTESTEDBY_VERIFY</t>
+  </si>
+  <si>
+    <t>REASON_FOR_CONTINUANCE_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTINUANCE_HEARING_REQUESTBY_VERIFY</t>
+  </si>
+  <si>
+    <t>OFFICIAL_NEXT_HEARING_DATE_AND_TIME</t>
+  </si>
+  <si>
+    <t>REASON_FOR_CONTESTED</t>
+  </si>
+  <si>
+    <t>CONTESTEDBY</t>
+  </si>
+  <si>
+    <t>CONTINUANCE_HEARING_REQUESTBY</t>
+  </si>
+  <si>
+    <t>HEARING_INFORMATION</t>
+  </si>
+  <si>
+    <t>SUPERIOR_COURT_INFORMATION</t>
+  </si>
+  <si>
+    <t>SUPERIOR_COURT_ADDRESS_INFORMATION</t>
+  </si>
+  <si>
+    <t>VERIFY_ISSUE_TOAST_MESSAGE</t>
+  </si>
+  <si>
+    <t>WARRENT_ID</t>
+  </si>
+  <si>
+    <t>HEARING_ID1</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>VERIFY_ISSUE_TOAST_MESSAGE2</t>
+  </si>
+  <si>
+    <t>Vacated</t>
+  </si>
+  <si>
+    <t>I wont tell</t>
+  </si>
+  <si>
+    <t>testT4245</t>
+  </si>
+  <si>
+    <t>E-filing</t>
+  </si>
+  <si>
+    <t>CMMANAGERCONTRACOSTA</t>
+  </si>
+  <si>
+    <t>CMSUPERVISORCONTRACOSTA</t>
+  </si>
+  <si>
+    <t>PETITION_WORK_ITEM_ID1</t>
+  </si>
+  <si>
+    <t>RECALL_BTN</t>
+  </si>
+  <si>
+    <t>COMMENTS_RECALL</t>
+  </si>
+  <si>
+    <t>autoText</t>
+  </si>
+  <si>
+    <t>Paper filing</t>
+  </si>
+  <si>
+    <t>HEARING_TAB</t>
+  </si>
+  <si>
+    <t>Continued</t>
+  </si>
+  <si>
+    <t>JV 410</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>SINGLE_CHILD_RB</t>
+  </si>
+  <si>
+    <t>MULTIPLE_CHILDREN_RB</t>
+  </si>
+  <si>
+    <t>CONTRARY_YES_RB</t>
+  </si>
+  <si>
+    <t>CONTRARY_NO_RB</t>
+  </si>
+  <si>
+    <t>SELECT_FOCUS_CHILD</t>
+  </si>
+  <si>
+    <t>AMEND_PETITION_VISIBLE</t>
+  </si>
+  <si>
+    <t>AMENDED_PETITION_STATUS</t>
+  </si>
+  <si>
+    <t>AMENDED_PETITION_CHECKBOX_VERIFY</t>
+  </si>
+  <si>
+    <t>CASE_REF_VERIFY</t>
+  </si>
+  <si>
+    <t>CASE_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>SERVICE_COMPONENT_VERIFY</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -419,7 +788,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +798,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -453,6 +840,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,25 +1157,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698A64C3-BE1D-47FD-AB7F-548C150FB5B6}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956F4017-6A3B-4528-A576-ADBAA4CE45DC}">
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" customWidth="1"/>
-    <col min="5" max="5" width="26.453125" customWidth="1"/>
-    <col min="6" max="6" width="60.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -794,23 +1201,71 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S1" t="s">
+        <v>187</v>
+      </c>
+      <c r="T1" t="s">
+        <v>145</v>
+      </c>
+      <c r="U1" t="s">
+        <v>189</v>
+      </c>
+      <c r="V1" t="s">
+        <v>190</v>
+      </c>
+      <c r="W1" t="s">
+        <v>206</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -820,71 +1275,446 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="X2" s="8"/>
+    </row>
+    <row r="3" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C9281-95B1-4261-8698-031FB833C8F1}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE28A1-6BE4-48AF-9A65-60EB9C68D2E0}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="37" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="26.54296875" style="4" customWidth="1"/>
+    <col min="12" max="15" width="41.1796875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="40.1796875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="44.54296875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="40.1796875" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -894,7 +1724,271 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10" style="4" customWidth="1"/>
+    <col min="5" max="5" width="29.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" customWidth="1"/>
+    <col min="8" max="8" width="28.453125" customWidth="1"/>
+    <col min="12" max="12" width="29.453125" customWidth="1"/>
+    <col min="13" max="13" width="26.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8680FC0-F632-45A0-B6DA-7F92240C0A87}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8EB240-6841-4BB5-96BA-BA7B1D39BA18}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" customWidth="1"/>
+    <col min="7" max="7" width="35.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -926,28 +2020,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -967,7 +2061,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
@@ -982,12 +2076,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B25D-02A3-4C2E-B650-20FDB3D7917E}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1009,7 +2103,7 @@
     <col min="15" max="15" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1020,46 +2114,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,6 +2207,32 @@
       </c>
       <c r="P2" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1114,12 +2240,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B78A5E-5873-467A-B8DB-F33589FCB780}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1147,25 +2273,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1206,7 +2332,1505 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57A754B-6C4D-4F46-AFB2-D2A6709D56D1}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29C7602-AA01-44A6-9119-1E036C8353B7}">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>141</v>
+      </c>
+      <c r="R1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V1" t="s">
+        <v>207</v>
+      </c>
+      <c r="W1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" t="s">
+        <v>207</v>
+      </c>
+      <c r="W3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
+  <dimension ref="A1:AG5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="38.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R1" t="s">
+        <v>194</v>
+      </c>
+      <c r="S1" t="s">
+        <v>195</v>
+      </c>
+      <c r="T1" t="s">
+        <v>196</v>
+      </c>
+      <c r="U1" t="s">
+        <v>197</v>
+      </c>
+      <c r="V1" t="s">
+        <v>198</v>
+      </c>
+      <c r="W1" t="s">
+        <v>199</v>
+      </c>
+      <c r="X1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A75ED-C5E5-4ACC-91B4-7C1A95E78CD8}">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="25.08984375" customWidth="1"/>
+    <col min="21" max="21" width="15.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="U3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" t="s">
+        <v>217</v>
+      </c>
+      <c r="U4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="N5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="S5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E53F1CC-8316-4D5B-AB93-2C2C643381EB}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="23.36328125" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" customWidth="1"/>
+    <col min="12" max="12" width="18.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.08984375" customWidth="1"/>
+    <col min="16" max="16" width="21.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698A64C3-BE1D-47FD-AB7F-548C150FB5B6}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" customWidth="1"/>
+    <col min="6" max="6" width="60.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C0AE46-36C8-4825-95FA-018986A6B0B5}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
@@ -1253,70 +3877,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="Q1" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1335,7 +3959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA6C99-F580-4B4C-85D4-6F4C5FBF99B1}">
   <dimension ref="A1:W2"/>
   <sheetViews>
@@ -1376,64 +4000,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1452,12 +4076,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488771E6-AEC9-43EB-8B07-DC7B8A4C4235}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1472,33 +4096,51 @@
     <col min="8" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1508,483 +4150,239 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C9281-95B1-4261-8698-031FB833C8F1}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="18.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE28A1-6BE4-48AF-9A65-60EB9C68D2E0}">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="25.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="37" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="21.81640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="26.54296875" style="4" customWidth="1"/>
-    <col min="12" max="15" width="41.1796875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="40.1796875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="44.54296875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="40.1796875" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.7265625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.54296875" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" customWidth="1"/>
-    <col min="8" max="8" width="28.453125" customWidth="1"/>
-    <col min="12" max="12" width="29.453125" customWidth="1"/>
-    <col min="13" max="13" width="26.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8680FC0-F632-45A0-B6DA-7F92240C0A87}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" customWidth="1"/>
-    <col min="8" max="8" width="27.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8EB240-6841-4BB5-96BA-BA7B1D39BA18}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="31.1796875" customWidth="1"/>
-    <col min="7" max="7" width="35.453125" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1998,16 +4396,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -2224,6 +4612,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
   <ds:schemaRefs>
@@ -2233,16 +4631,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6095730-1FE4-4AF8-B1FC-43F1685DBB31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2259,4 +4647,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata20feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF6FA8F-79B4-4029-B269-735CFACCDABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF58EE9-C933-4E19-9B6E-91F8A9243D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="8" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="239">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -767,6 +767,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>WIC 300</t>
   </si>
 </sst>
 </file>
@@ -3152,8 +3155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A75ED-C5E5-4ACC-91B4-7C1A95E78CD8}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3301,7 +3304,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>168</v>
@@ -4080,7 +4083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488771E6-AEC9-43EB-8B07-DC7B8A4C4235}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -4387,12 +4390,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4613,19 +4617,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4650,11 +4655,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata20feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF58EE9-C933-4E19-9B6E-91F8A9243D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691B8919-CFDF-4BD2-900F-4D2CDE5B7C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="241">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -770,6 +770,12 @@
   </si>
   <si>
     <t>WIC 300</t>
+  </si>
+  <si>
+    <t>Open - Created</t>
+  </si>
+  <si>
+    <t>NEW</t>
   </si>
 </sst>
 </file>
@@ -2658,8 +2664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2776,6 +2782,9 @@
       <c r="AD1" t="s">
         <v>205</v>
       </c>
+      <c r="AE1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="2" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -2868,6 +2877,9 @@
       <c r="AD2" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="AE2" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -2957,6 +2969,9 @@
       <c r="AD3" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="AE3" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
@@ -3049,6 +3064,9 @@
       <c r="AD4" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="AE4" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -3061,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>9</v>
@@ -3141,7 +3159,9 @@
       <c r="AD5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AE5" s="9"/>
+      <c r="AE5" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
     </row>
@@ -3155,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A75ED-C5E5-4ACC-91B4-7C1A95E78CD8}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3303,11 +3323,14 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="8" t="s">
         <v>238</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata20feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata21feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691B8919-CFDF-4BD2-900F-4D2CDE5B7C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0839339-327F-4A98-8A98-547B0E42B766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="15" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -28,9 +28,10 @@
     <sheet name="RelatedReferrals" sheetId="11" r:id="rId13"/>
     <sheet name="GeneratePetition" sheetId="2" r:id="rId14"/>
     <sheet name="PetitionAllegation" sheetId="3" r:id="rId15"/>
-    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId16"/>
-    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId17"/>
-    <sheet name="CourtWorkItems" sheetId="19" r:id="rId18"/>
+    <sheet name="Participants" sheetId="20" r:id="rId16"/>
+    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId17"/>
+    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId18"/>
+    <sheet name="CourtWorkItems" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="253">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -673,6 +674,9 @@
     <t>SUPERIOR_COURT_ADDRESS_INFORMATION</t>
   </si>
   <si>
+    <t>HEARING_DETAILS_TAB</t>
+  </si>
+  <si>
     <t>VERIFY_ISSUE_TOAST_MESSAGE</t>
   </si>
   <si>
@@ -694,60 +698,63 @@
     <t>I wont tell</t>
   </si>
   <si>
+    <t>VERIFY_SUCCESS_TOAST_MESSAGE</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>SINGLE_CHILD_RB</t>
+  </si>
+  <si>
+    <t>MULTIPLE_CHILDREN_RB</t>
+  </si>
+  <si>
+    <t>CONTRARY_YES_RB</t>
+  </si>
+  <si>
+    <t>CONTRARY_NO_RB</t>
+  </si>
+  <si>
+    <t>SELECT_FOCUS_CHILD</t>
+  </si>
+  <si>
     <t>testT4245</t>
   </si>
   <si>
+    <t>JV 410</t>
+  </si>
+  <si>
+    <t>Continued</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>WIC 300</t>
+  </si>
+  <si>
+    <t>Open - Created</t>
+  </si>
+  <si>
     <t>E-filing</t>
   </si>
   <si>
+    <t>PETITION_WORK_ITEM_ID1</t>
+  </si>
+  <si>
     <t>CMMANAGERCONTRACOSTA</t>
   </si>
   <si>
+    <t>Paper filing</t>
+  </si>
+  <si>
     <t>CMSUPERVISORCONTRACOSTA</t>
   </si>
   <si>
-    <t>PETITION_WORK_ITEM_ID1</t>
-  </si>
-  <si>
-    <t>RECALL_BTN</t>
-  </si>
-  <si>
-    <t>COMMENTS_RECALL</t>
-  </si>
-  <si>
-    <t>autoText</t>
-  </si>
-  <si>
-    <t>Paper filing</t>
-  </si>
-  <si>
-    <t>HEARING_TAB</t>
-  </si>
-  <si>
-    <t>Continued</t>
-  </si>
-  <si>
-    <t>JV 410</t>
-  </si>
-  <si>
-    <t>LANGUAGE</t>
-  </si>
-  <si>
-    <t>SINGLE_CHILD_RB</t>
-  </si>
-  <si>
-    <t>MULTIPLE_CHILDREN_RB</t>
-  </si>
-  <si>
-    <t>CONTRARY_YES_RB</t>
-  </si>
-  <si>
-    <t>CONTRARY_NO_RB</t>
-  </si>
-  <si>
-    <t>SELECT_FOCUS_CHILD</t>
-  </si>
-  <si>
     <t>AMEND_PETITION_VISIBLE</t>
   </si>
   <si>
@@ -769,13 +776,43 @@
     <t>No</t>
   </si>
   <si>
-    <t>WIC 300</t>
-  </si>
-  <si>
-    <t>Open - Created</t>
-  </si>
-  <si>
-    <t>NEW</t>
+    <t>REJECT_BTN</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>APPROVE_BTN</t>
+  </si>
+  <si>
+    <t>PETITION_ALLEGATION_ID</t>
+  </si>
+  <si>
+    <t>PARTICIPANTS</t>
+  </si>
+  <si>
+    <t>COURT_WORK_ITEM_PARTICIPANT_VERIFY</t>
+  </si>
+  <si>
+    <t>CHILDREN_VERIFY</t>
+  </si>
+  <si>
+    <t>VERIFY_PICK_FOCUS_CHILD</t>
+  </si>
+  <si>
+    <t>VERIFY_PICK_PARTICIPANT</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_PARTICIPANT_VERIFY</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_ROLE_VERIFY</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_DOB_VERIFY</t>
   </si>
 </sst>
 </file>
@@ -797,7 +834,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -813,6 +850,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -853,6 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1167,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956F4017-6A3B-4528-A576-ADBAA4CE45DC}">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1198,9 +1242,10 @@
     <col min="22" max="22" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="27.90625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1268,13 +1313,16 @@
         <v>190</v>
       </c>
       <c r="W1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1301,7 +1349,7 @@
       </c>
       <c r="X2" s="8"/>
     </row>
-    <row r="3" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>129</v>
       </c>
@@ -1374,8 +1422,11 @@
       <c r="X3" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Y3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>129</v>
       </c>
@@ -1448,8 +1499,11 @@
       <c r="X4" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Y4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>129</v>
       </c>
@@ -1520,6 +1574,86 @@
         <v>12</v>
       </c>
       <c r="X5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1533,7 +1667,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1999,10 +2133,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2018,7 +2152,7 @@
     <col min="11" max="11" width="45.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2052,8 +2186,14 @@
       <c r="K1" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2076,6 +2216,41 @@
         <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2086,11 +2261,104 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD14753-29D0-4ED7-9032-5FEC34700482}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B25D-02A3-4C2E-B650-20FDB3D7917E}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2112,7 +2380,7 @@
     <col min="15" max="15" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2161,14 +2429,17 @@
       <c r="P1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="R1" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2217,16 +2488,10 @@
       <c r="P2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2237,11 +2502,20 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" t="s">
-        <v>220</v>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2249,7 +2523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B78A5E-5873-467A-B8DB-F33589FCB780}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -2341,12 +2615,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57A754B-6C4D-4F46-AFB2-D2A6709D56D1}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2392,23 +2666,6 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" t="s">
-        <v>182</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2416,10 +2673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29C7602-AA01-44A6-9119-1E036C8353B7}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2440,9 +2697,10 @@
     <col min="22" max="22" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.08984375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.90625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2507,7 +2765,7 @@
         <v>144</v>
       </c>
       <c r="V1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="W1" t="s">
         <v>145</v>
@@ -2515,145 +2773,234 @@
       <c r="X1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="Y1" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="Y2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="4" t="s">
+      <c r="K3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="V3" t="s">
-        <v>207</v>
-      </c>
-      <c r="W3" t="s">
-        <v>9</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="V3" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="7" t="s">
         <v>181</v>
       </c>
+      <c r="Y3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y5" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2662,10 +3009,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2689,6 +3036,7 @@
     <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.7265625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -2705,7 +3053,7 @@
         <v>61</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="F1" t="s">
         <v>130</v>
@@ -2783,7 +3131,10 @@
         <v>205</v>
       </c>
       <c r="AE1" t="s">
-        <v>240</v>
+        <v>207</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -2827,7 +3178,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>9</v>
@@ -2878,6 +3229,9 @@
         <v>12</v>
       </c>
       <c r="AE2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2904,7 +3258,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>12</v>
@@ -2970,6 +3324,9 @@
         <v>12</v>
       </c>
       <c r="AE3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3002,7 +3359,7 @@
         <v>12</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -3020,7 +3377,7 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>181</v>
@@ -3067,107 +3424,209 @@
       <c r="AE4" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="AF4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
+      <c r="O6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3176,7 +3635,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3193,146 +3652,149 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="H2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="A3" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="H3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="8" t="s">
@@ -3347,63 +3809,63 @@
       <c r="L3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M3" t="s">
-        <v>214</v>
-      </c>
-      <c r="N3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="M3" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="U3" t="s">
+        <v>229</v>
+      </c>
+      <c r="U3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+        <v>222</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="8" t="s">
@@ -3427,39 +3889,39 @@
       <c r="Q4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R4" t="s">
-        <v>215</v>
-      </c>
-      <c r="S4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" t="s">
-        <v>217</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="R4" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="U4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+        <v>222</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="8" t="s">
@@ -3478,9 +3940,9 @@
         <v>12</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="N5" t="s">
+        <v>231</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="O5" s="8" t="s">
@@ -3493,15 +3955,16 @@
         <v>12</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="S5" t="s">
-        <v>9</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3626,10 +4089,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698A64C3-BE1D-47FD-AB7F-548C150FB5B6}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3643,7 +4106,7 @@
     <col min="7" max="7" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3668,26 +4131,27 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>228</v>
+      <c r="I1" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3712,8 +4176,27 @@
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -3738,8 +4221,26 @@
       <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3764,91 +4265,129 @@
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+        <v>222</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="K6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M6" t="s">
-        <v>12</v>
-      </c>
+      <c r="M6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4107,7 +4646,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4136,13 +4675,13 @@
         <v>56</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>58</v>
@@ -4151,261 +4690,276 @@
         <v>189</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>91</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="A3" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="F3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="A4" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="D4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="A5" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="A6" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
         <v>4</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="H6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="A7" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="D7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4413,13 +4967,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4640,20 +5193,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4678,9 +5230,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata21feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0839339-327F-4A98-8A98-547B0E42B766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E47AA7-3A45-4356-8D77-92E511199336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="15" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="18" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="253">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -834,7 +834,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,6 +871,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -884,7 +890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -897,6 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2264,7 +2271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD14753-29D0-4ED7-9032-5FEC34700482}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -2617,10 +2624,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57A754B-6C4D-4F46-AFB2-D2A6709D56D1}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2663,6 +2670,23 @@
         <v>182</v>
       </c>
       <c r="E2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4967,15 +4991,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -5192,6 +5207,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5203,14 +5227,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6095730-1FE4-4AF8-B1FC-43F1685DBB31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5225,6 +5241,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata21feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E47AA7-3A45-4356-8D77-92E511199336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1FA437-2D91-4A96-803D-95F6BD351240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="18" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="8" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="255">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -773,9 +773,6 @@
     <t>SERVICE_COMPONENT_VERIFY</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>REJECT_BTN</t>
   </si>
   <si>
@@ -813,6 +810,15 @@
   </si>
   <si>
     <t>COURT_WORKITEM_PARTICIPANT_DOB_VERIFY</t>
+  </si>
+  <si>
+    <t>PICK_PARTICIPANT_BTN</t>
+  </si>
+  <si>
+    <t>FOCUS_CHILD_EXPAND</t>
+  </si>
+  <si>
+    <t>Active - Submitted to court</t>
   </si>
 </sst>
 </file>
@@ -2197,7 +2203,7 @@
         <v>145</v>
       </c>
       <c r="M1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2269,15 +2275,15 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD14753-29D0-4ED7-9032-5FEC34700482}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2288,71 +2294,82 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" t="s">
         <v>244</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>246</v>
       </c>
-      <c r="F1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>247</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>248</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="N1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="8"/>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2437,13 +2454,13 @@
         <v>115</v>
       </c>
       <c r="R1" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2626,7 +2643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57A754B-6C4D-4F46-AFB2-D2A6709D56D1}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
@@ -3036,7 +3053,7 @@
   <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3659,7 +3676,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="A3" sqref="A3:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3797,52 +3814,52 @@
       <c r="U2" s="8"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="H3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="8" t="s">
+      <c r="N3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="Q3" s="8" t="s">
@@ -3862,52 +3879,52 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="8" t="s">
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="12" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="8" t="s">
@@ -3927,52 +3944,52 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
         <v>3</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="8" t="s">
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="8" t="s">
+      <c r="N5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="8" t="s">
@@ -4115,7 +4132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698A64C3-BE1D-47FD-AB7F-548C150FB5B6}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -4669,8 +4686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488771E6-AEC9-43EB-8B07-DC7B8A4C4235}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4814,8 +4831,8 @@
       <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>239</v>
+      <c r="E4" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>12</v>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata21feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1FA437-2D91-4A96-803D-95F6BD351240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA21C338-7128-4217-973B-C844C1E9B8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="8" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="255">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2278,7 +2278,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3673,10 +3673,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A75ED-C5E5-4ACC-91B4-7C1A95E78CD8}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:P5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3963,7 +3963,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>12</v>
@@ -4004,8 +4004,74 @@
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
     </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4686,7 +4752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488771E6-AEC9-43EB-8B07-DC7B8A4C4235}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata21feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA21C338-7128-4217-973B-C844C1E9B8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69374AB3-9DA9-441B-B8BB-70C61FA6E8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -3675,8 +3675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A75ED-C5E5-4ACC-91B4-7C1A95E78CD8}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4059,8 +4059,8 @@
       <c r="R6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="12" t="s">
-        <v>12</v>
+      <c r="S6" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>12</v>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata21feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata22feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69374AB3-9DA9-441B-B8BB-70C61FA6E8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F3BDD0-0966-42DC-A208-5DD21EA47C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="8" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="CourtHearings" sheetId="16" r:id="rId3"/>
     <sheet name="Petition" sheetId="17" r:id="rId4"/>
     <sheet name="AdHocActivity" sheetId="18" r:id="rId5"/>
-    <sheet name="GenerateDocument" sheetId="1" r:id="rId6"/>
+    <sheet name="CourtGenerateDocument" sheetId="1" r:id="rId6"/>
     <sheet name="CourtOfficerNotes" sheetId="7" r:id="rId7"/>
     <sheet name="CourtReports" sheetId="8" r:id="rId8"/>
     <sheet name="AmendPetition" sheetId="12" r:id="rId9"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="276">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -278,9 +278,6 @@
     <t>YES_COURT_ORDERED_SPECIAL_PROGRAMS</t>
   </si>
   <si>
-    <t>NOT_COURT_ORDERED_SPECIAL_PROGRAMS</t>
-  </si>
-  <si>
     <t>YES_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
   </si>
   <si>
@@ -662,9 +659,6 @@
     <t>CONTESTEDBY</t>
   </si>
   <si>
-    <t>CONTINUANCE_HEARING_REQUESTBY</t>
-  </si>
-  <si>
     <t>HEARING_INFORMATION</t>
   </si>
   <si>
@@ -788,12 +782,6 @@
     <t>PARTICIPANTS</t>
   </si>
   <si>
-    <t>COURT_WORK_ITEM_PARTICIPANT_VERIFY</t>
-  </si>
-  <si>
-    <t>CHILDREN_VERIFY</t>
-  </si>
-  <si>
     <t>VERIFY_PICK_FOCUS_CHILD</t>
   </si>
   <si>
@@ -812,10 +800,85 @@
     <t>COURT_WORKITEM_PARTICIPANT_DOB_VERIFY</t>
   </si>
   <si>
+    <t>Requested</t>
+  </si>
+  <si>
+    <t>Contested</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Courts Own Motion</t>
+  </si>
+  <si>
+    <t>REASON_FOR_CONTINUANCE</t>
+  </si>
+  <si>
+    <t>CONTINUED_HEARING_REQUESTBY</t>
+  </si>
+  <si>
+    <t>NO_COURT_ORDERED_SPECIAL_PROGRAMS</t>
+  </si>
+  <si>
+    <t>Active Efforts to Reunify Made</t>
+  </si>
+  <si>
+    <t>15-Day Review Ordered</t>
+  </si>
+  <si>
+    <t>As Recommended</t>
+  </si>
+  <si>
+    <t>WARRENTS</t>
+  </si>
+  <si>
+    <t>PETITIONS</t>
+  </si>
+  <si>
+    <t>HEARINGS</t>
+  </si>
+  <si>
+    <t>AD_HOC_ACTIVITIES</t>
+  </si>
+  <si>
+    <t>CHILD_REN</t>
+  </si>
+  <si>
+    <t>COURT_WORK_ITEM_PARTICIPANT</t>
+  </si>
+  <si>
+    <t>PICK_FOCUS_CHILD_BTN</t>
+  </si>
+  <si>
+    <t>SELECT_CHILDREN</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_ID</t>
+  </si>
+  <si>
     <t>PICK_PARTICIPANT_BTN</t>
   </si>
   <si>
-    <t>FOCUS_CHILD_EXPAND</t>
+    <t>SELECT_PARTICIPANT</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_ID_VERIFY_WORKITEM</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_PARTICIPANT_VERIFY_WORKITEM</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_ROLE_VERIFY_WORKITEM</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_DOB_VERIFY_WORKITEM</t>
+  </si>
+  <si>
+    <t>YES_RB</t>
+  </si>
+  <si>
+    <t>NO_RB</t>
   </si>
   <si>
     <t>Active - Submitted to court</t>
@@ -1224,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956F4017-6A3B-4528-A576-ADBAA4CE45DC}">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1269,117 +1332,167 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
         <v>117</v>
-      </c>
-      <c r="E1" t="s">
-        <v>118</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
       </c>
       <c r="G1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" t="s">
         <v>119</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>120</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>121</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>122</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>123</v>
-      </c>
-      <c r="L1" t="s">
-        <v>124</v>
       </c>
       <c r="M1" t="s">
         <v>38</v>
       </c>
       <c r="N1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" t="s">
         <v>125</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>126</v>
-      </c>
-      <c r="P1" t="s">
-        <v>127</v>
       </c>
       <c r="Q1" t="s">
         <v>36</v>
       </c>
       <c r="R1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U1" t="s">
+        <v>188</v>
+      </c>
+      <c r="V1" t="s">
+        <v>189</v>
+      </c>
+      <c r="W1" t="s">
+        <v>205</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="S1" t="s">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="T1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U1" t="s">
-        <v>189</v>
-      </c>
-      <c r="V1" t="s">
-        <v>190</v>
-      </c>
-      <c r="W1" t="s">
-        <v>207</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X2" s="8"/>
+      <c r="T2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>12</v>
@@ -1394,43 +1507,43 @@
         <v>12</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X3" s="7" t="s">
         <v>12</v>
@@ -1441,13 +1554,13 @@
     </row>
     <row r="4" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
@@ -1471,22 +1584,22 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="N4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>9</v>
@@ -1507,10 +1620,10 @@
         <v>12</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y4" s="7" t="s">
         <v>12</v>
@@ -1518,13 +1631,13 @@
     </row>
     <row r="5" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>12</v>
@@ -1548,22 +1661,22 @@
         <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="N5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>9</v>
@@ -1587,87 +1700,164 @@
         <v>12</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1760,7 +1950,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1782,95 +1972,121 @@
     <col min="18" max="18" width="40.1796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="8" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="1" t="s">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1915,31 +2131,31 @@
         <v>61</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>36</v>
@@ -2005,22 +2221,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4" t="s">
@@ -2097,10 +2313,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>59</v>
@@ -2132,7 +2348,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -2148,7 +2364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -2182,28 +2398,28 @@
         <v>61</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>36</v>
       </c>
       <c r="L1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2223,7 +2439,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
@@ -2240,7 +2456,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2255,7 +2471,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>9</v>
@@ -2275,15 +2491,39 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD14753-29D0-4ED7-9032-5FEC34700482}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="59.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="51.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2293,43 +2533,70 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="F1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="O1" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="I1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="M1" t="s">
-        <v>252</v>
-      </c>
-      <c r="N1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q1" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>222</v>
+        <v>8</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
@@ -2341,34 +2608,203 @@
         <v>9</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2415,52 +2851,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="R1" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2515,7 +2951,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2580,25 +3016,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2641,10 +3077,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57A754B-6C4D-4F46-AFB2-D2A6709D56D1}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2654,28 +3090,44 @@
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -2684,15 +3136,27 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>222</v>
+        <v>8</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
@@ -2701,10 +3165,51 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2755,72 +3260,72 @@
         <v>61</v>
       </c>
       <c r="E1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" t="s">
         <v>130</v>
-      </c>
-      <c r="F1" t="s">
-        <v>131</v>
       </c>
       <c r="G1" t="s">
         <v>50</v>
       </c>
       <c r="H1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" t="s">
         <v>132</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>133</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>134</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>135</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>136</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>137</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>138</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>139</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>140</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>141</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>142</v>
-      </c>
-      <c r="S1" t="s">
-        <v>143</v>
       </c>
       <c r="T1" t="s">
         <v>36</v>
       </c>
       <c r="U1" t="s">
+        <v>143</v>
+      </c>
+      <c r="V1" t="s">
+        <v>206</v>
+      </c>
+      <c r="W1" t="s">
         <v>144</v>
       </c>
-      <c r="V1" t="s">
-        <v>208</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>145</v>
       </c>
-      <c r="X1" t="s">
-        <v>146</v>
-      </c>
       <c r="Y1" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -2832,10 +3337,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>12</v>
@@ -2888,7 +3393,7 @@
     </row>
     <row r="3" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -2915,7 +3420,7 @@
         <v>12</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>12</v>
@@ -2951,13 +3456,13 @@
         <v>10</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="W3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y3" s="7" t="s">
         <v>12</v>
@@ -2965,7 +3470,7 @@
     </row>
     <row r="4" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -3028,7 +3533,7 @@
         <v>10</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="W4" s="7" t="s">
         <v>9</v>
@@ -3050,10 +3555,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3062,12 +3567,12 @@
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.08984375" bestFit="1" customWidth="1"/>
@@ -3075,9 +3580,21 @@
     <col min="15" max="15" width="8.08984375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="30.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.6328125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="38.453125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -3094,19 +3611,19 @@
         <v>61</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" t="s">
         <v>147</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>148</v>
-      </c>
-      <c r="I1" t="s">
-        <v>149</v>
       </c>
       <c r="J1" t="s">
         <v>38</v>
@@ -3118,69 +3635,69 @@
         <v>36</v>
       </c>
       <c r="M1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" t="s">
         <v>150</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" t="s">
         <v>151</v>
       </c>
-      <c r="O1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>152</v>
       </c>
-      <c r="Q1" t="s">
-        <v>153</v>
-      </c>
       <c r="R1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S1" t="s">
         <v>194</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>195</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>196</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>197</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>198</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>199</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>200</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB1" t="s">
         <v>201</v>
       </c>
-      <c r="Z1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>202</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>203</v>
       </c>
-      <c r="AC1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>205</v>
       </c>
-      <c r="AE1" t="s">
-        <v>207</v>
-      </c>
       <c r="AF1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -3195,7 +3712,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>12</v>
@@ -3219,7 +3736,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>9</v>
@@ -3278,7 +3795,7 @@
     </row>
     <row r="3" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -3299,7 +3816,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>12</v>
@@ -3373,7 +3890,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -3400,7 +3917,7 @@
         <v>12</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -3418,10 +3935,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>12</v>
@@ -3471,7 +3988,7 @@
     </row>
     <row r="5" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -3498,7 +4015,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
@@ -3569,28 +4086,28 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>224</v>
-      </c>
       <c r="H6" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>12</v>
@@ -3608,7 +4125,7 @@
         <v>10</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>9</v>
@@ -3665,6 +4182,300 @@
         <v>9</v>
       </c>
       <c r="AG6" s="10"/>
+    </row>
+    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF7" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF8" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF9" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3675,8 +4486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A75ED-C5E5-4ACC-91B4-7C1A95E78CD8}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3706,40 +4517,40 @@
         <v>59</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>50</v>
@@ -3748,15 +4559,15 @@
         <v>36</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -3769,10 +4580,10 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>12</v>
@@ -3815,7 +4626,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
@@ -3830,49 +4641,49 @@
         <v>12</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="N3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="U3" s="8" t="s">
         <v>9</v>
@@ -3880,7 +4691,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -3931,13 +4742,13 @@
         <v>12</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="S4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="U4" s="8" t="s">
         <v>9</v>
@@ -3945,7 +4756,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
@@ -3981,7 +4792,7 @@
         <v>12</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>12</v>
@@ -3996,7 +4807,7 @@
         <v>12</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="S5" s="8" t="s">
         <v>9</v>
@@ -4006,7 +4817,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
@@ -4024,7 +4835,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>12</v>
@@ -4071,7 +4882,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4106,45 +4916,45 @@
         <v>61</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>36</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -4156,28 +4966,28 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>12</v>
@@ -4196,10 +5006,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698A64C3-BE1D-47FD-AB7F-548C150FB5B6}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4213,7 +5023,7 @@
     <col min="7" max="7" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4239,26 +5049,31 @@
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="O1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O1" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4301,9 +5116,14 @@
       <c r="N2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -4346,8 +5166,14 @@
       <c r="N3" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -4390,10 +5216,16 @@
       <c r="N4" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
@@ -4408,7 +5240,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>12</v>
@@ -4434,11 +5266,16 @@
       <c r="N5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
@@ -4476,10 +5313,17 @@
       <c r="M6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -4752,8 +5596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488771E6-AEC9-43EB-8B07-DC7B8A4C4235}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4782,34 +5626,34 @@
         <v>56</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>235</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>58</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>238</v>
-      </c>
       <c r="N1" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
@@ -4840,7 +5684,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -4886,7 +5730,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -4897,7 +5741,7 @@
       <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -4932,7 +5776,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
@@ -4978,7 +5822,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
@@ -4993,7 +5837,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>10</v>
@@ -5024,7 +5868,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -5074,6 +5918,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -5290,15 +6143,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5310,6 +6154,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6095730-1FE4-4AF8-B1FC-43F1685DBB31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5324,14 +6176,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata22feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F3BDD0-0966-42DC-A208-5DD21EA47C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63E134A-CA97-4BDA-8264-7D5AD365B4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="8" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -740,15 +740,9 @@
     <t>PETITION_WORK_ITEM_ID1</t>
   </si>
   <si>
-    <t>CMMANAGERCONTRACOSTA</t>
-  </si>
-  <si>
     <t>Paper filing</t>
   </si>
   <si>
-    <t>CMSUPERVISORCONTRACOSTA</t>
-  </si>
-  <si>
     <t>AMEND_PETITION_VISIBLE</t>
   </si>
   <si>
@@ -882,6 +876,12 @@
   </si>
   <si>
     <t>Active - Submitted to court</t>
+  </si>
+  <si>
+    <t>CMManagerContraCosta</t>
+  </si>
+  <si>
+    <t>CMSupervisorContraCosta</t>
   </si>
 </sst>
 </file>
@@ -2010,7 +2010,7 @@
         <v>73</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>74</v>
@@ -2054,13 +2054,13 @@
         <v>9</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>255</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>12</v>
@@ -2419,7 +2419,7 @@
         <v>144</v>
       </c>
       <c r="M1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2534,64 +2534,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>265</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>36</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2890,13 +2890,13 @@
         <v>114</v>
       </c>
       <c r="R1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3113,16 +3113,16 @@
         <v>182</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -3674,10 +3674,10 @@
         <v>200</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AB1" t="s">
         <v>201</v>
@@ -4212,7 +4212,7 @@
         <v>12</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>12</v>
@@ -4310,7 +4310,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>12</v>
@@ -4352,10 +4352,10 @@
         <v>208</v>
       </c>
       <c r="X8" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Z8" s="12" t="s">
         <v>12</v>
@@ -4456,10 +4456,10 @@
         <v>12</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AA9" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AB9" s="12" t="s">
         <v>12</v>
@@ -4486,8 +4486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A75ED-C5E5-4ACC-91B4-7C1A95E78CD8}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:U6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4742,7 +4742,7 @@
         <v>12</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="S4" s="8" t="s">
         <v>9</v>
@@ -4792,7 +4792,7 @@
         <v>12</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>12</v>
@@ -4807,7 +4807,7 @@
         <v>12</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="S5" s="8" t="s">
         <v>9</v>
@@ -4835,7 +4835,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>12</v>
@@ -5067,10 +5067,10 @@
         <v>219</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -5596,7 +5596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488771E6-AEC9-43EB-8B07-DC7B8A4C4235}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -5626,13 +5626,13 @@
         <v>56</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>58</v>
@@ -5641,16 +5641,16 @@
         <v>188</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>90</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>92</v>
@@ -5918,12 +5918,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6144,19 +6145,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6181,11 +6183,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata22feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63E134A-CA97-4BDA-8264-7D5AD365B4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3548498D-ACA6-4F48-9F9D-3BE46274F5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -878,10 +878,10 @@
     <t>Active - Submitted to court</t>
   </si>
   <si>
-    <t>CMManagerContraCosta</t>
-  </si>
-  <si>
     <t>CMSupervisorContraCosta</t>
+  </si>
+  <si>
+    <t>Autocase4201 manager4201</t>
   </si>
 </sst>
 </file>
@@ -4487,7 +4487,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4742,7 +4742,7 @@
         <v>12</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S4" s="8" t="s">
         <v>9</v>
@@ -4807,7 +4807,7 @@
         <v>12</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S5" s="8" t="s">
         <v>9</v>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata22feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3548498D-ACA6-4F48-9F9D-3BE46274F5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352132EC-6AE5-4A49-BBC5-6F28C0D9389D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="16" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="278">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -882,6 +882,12 @@
   </si>
   <si>
     <t>Autocase4201 manager4201</t>
+  </si>
+  <si>
+    <t>RECALL_BUTTON</t>
+  </si>
+  <si>
+    <t>autoText</t>
   </si>
 </sst>
 </file>
@@ -2815,10 +2821,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B25D-02A3-4C2E-B650-20FDB3D7917E}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2840,7 +2846,7 @@
     <col min="15" max="15" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2898,8 +2904,11 @@
       <c r="T1" s="4" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U1" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2948,8 +2957,14 @@
       <c r="P2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>220</v>
       </c>
@@ -2976,6 +2991,18 @@
       </c>
       <c r="J3" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="T3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4486,8 +4513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A75ED-C5E5-4ACC-91B4-7C1A95E78CD8}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4741,7 +4768,7 @@
       <c r="Q4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="12" t="s">
         <v>275</v>
       </c>
       <c r="S4" s="8" t="s">

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata22feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352132EC-6AE5-4A49-BBC5-6F28C0D9389D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C395DEB-C0E0-462A-B727-7E1F4EF8B604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="16" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="279">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -878,9 +878,6 @@
     <t>Active - Submitted to court</t>
   </si>
   <si>
-    <t>CMSupervisorContraCosta</t>
-  </si>
-  <si>
     <t>Autocase4201 manager4201</t>
   </si>
   <si>
@@ -888,6 +885,12 @@
   </si>
   <si>
     <t>autoText</t>
+  </si>
+  <si>
+    <t>Autocase 4201 Supervisor4201</t>
+  </si>
+  <si>
+    <t>CLEAR_APPROVAL_SUPERVISOR</t>
   </si>
 </sst>
 </file>
@@ -2823,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B25D-02A3-4C2E-B650-20FDB3D7917E}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U3"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2905,7 +2908,7 @@
         <v>237</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2996,7 +2999,7 @@
         <v>9</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T3" t="s">
         <v>9</v>
@@ -4511,10 +4514,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A75ED-C5E5-4ACC-91B4-7C1A95E78CD8}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P13" activeCellId="1" sqref="V1:V6 P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4527,7 +4530,7 @@
     <col min="21" max="21" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4591,8 +4594,11 @@
       <c r="U1" s="8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V1" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>165</v>
       </c>
@@ -4650,8 +4656,11 @@
       </c>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>220</v>
       </c>
@@ -4715,8 +4724,11 @@
       <c r="U3" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V3" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>220</v>
       </c>
@@ -4769,7 +4781,7 @@
         <v>12</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S4" s="8" t="s">
         <v>9</v>
@@ -4780,8 +4792,11 @@
       <c r="U4" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V4" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>220</v>
       </c>
@@ -4833,16 +4848,19 @@
       <c r="Q5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="8" t="s">
-        <v>274</v>
+      <c r="R5" s="12" t="s">
+        <v>277</v>
       </c>
       <c r="S5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V5" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>220</v>
       </c>
@@ -4904,6 +4922,9 @@
         <v>12</v>
       </c>
       <c r="U6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="12" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata22feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C395DEB-C0E0-462A-B727-7E1F4EF8B604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D61E776-2A52-4B69-AC7A-5E703240D5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="14" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="DocumentDistributions" sheetId="10" r:id="rId12"/>
     <sheet name="RelatedReferrals" sheetId="11" r:id="rId13"/>
     <sheet name="GeneratePetition" sheetId="2" r:id="rId14"/>
-    <sheet name="PetitionAllegation" sheetId="3" r:id="rId15"/>
+    <sheet name="PetitionAllegations" sheetId="3" r:id="rId15"/>
     <sheet name="Participants" sheetId="20" r:id="rId16"/>
     <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId17"/>
     <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId18"/>
@@ -2373,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2826,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B25D-02A3-4C2E-B650-20FDB3D7917E}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4516,8 +4516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A75ED-C5E5-4ACC-91B4-7C1A95E78CD8}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P13" activeCellId="1" sqref="V1:V6 P13"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata22feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D61E776-2A52-4B69-AC7A-5E703240D5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B933A7-2269-491F-B787-A503C9BE8EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="14" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="280">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -891,6 +891,9 @@
   </si>
   <si>
     <t>CLEAR_APPROVAL_SUPERVISOR</t>
+  </si>
+  <si>
+    <t>A: Physical Abuse</t>
   </si>
 </sst>
 </file>
@@ -2373,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2479,8 +2482,8 @@
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>101</v>
+      <c r="F3" s="12" t="s">
+        <v>279</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>9</v>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata22feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B933A7-2269-491F-B787-A503C9BE8EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E0A601-BF5F-4955-B291-9A72B5F01ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="14" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="8" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -2376,7 +2376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -5647,8 +5647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488771E6-AEC9-43EB-8B07-DC7B8A4C4235}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5888,7 +5888,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>10</v>
@@ -5969,13 +5969,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6196,20 +6195,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6234,9 +6232,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata22feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E0A601-BF5F-4955-B291-9A72B5F01ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F25A63A-D857-412E-9C8C-549A69FF3C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="8" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="280">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -4517,10 +4517,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A75ED-C5E5-4ACC-91B4-7C1A95E78CD8}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4837,7 +4837,7 @@
         <v>12</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>12</v>
@@ -4928,6 +4928,74 @@
         <v>12</v>
       </c>
       <c r="V6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5060,7 +5128,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5647,7 +5715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488771E6-AEC9-43EB-8B07-DC7B8A4C4235}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata22feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F25A63A-D857-412E-9C8C-549A69FF3C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8041C0C4-D224-4B15-834E-27856551A2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="14" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="286">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -894,6 +894,24 @@
   </si>
   <si>
     <t>A: Physical Abuse</t>
+  </si>
+  <si>
+    <t>STEP_NAME</t>
+  </si>
+  <si>
+    <t>STATUS_TYPE</t>
+  </si>
+  <si>
+    <t>Approval Supervisor</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>PETITION_RULING_VERIFY</t>
+  </si>
+  <si>
+    <t>PETITION_RULING_SUBTYPE_VERIFY</t>
   </si>
 </sst>
 </file>
@@ -2374,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2393,7 +2411,7 @@
     <col min="11" max="11" width="45.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2433,8 +2451,17 @@
       <c r="M1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2465,8 +2492,17 @@
       <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>220</v>
       </c>
@@ -2492,6 +2528,15 @@
         <v>9</v>
       </c>
       <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2827,10 +2872,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B25D-02A3-4C2E-B650-20FDB3D7917E}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2852,7 +2897,7 @@
     <col min="15" max="15" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2913,8 +2958,14 @@
       <c r="U1" s="12" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V1" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2969,8 +3020,14 @@
       <c r="U2" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>220</v>
       </c>
@@ -3009,6 +3066,12 @@
       </c>
       <c r="U3" s="12" t="s">
         <v>9</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4519,8 +4582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A75ED-C5E5-4ACC-91B4-7C1A95E78CD8}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata22feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8041C0C4-D224-4B15-834E-27856551A2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67673137-CCDF-478B-8695-A42F03ED6649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="14" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="285">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -738,9 +738,6 @@
   </si>
   <si>
     <t>PETITION_WORK_ITEM_ID1</t>
-  </si>
-  <si>
-    <t>Paper filing</t>
   </si>
   <si>
     <t>AMEND_PETITION_VISIBLE</t>
@@ -2040,7 +2037,7 @@
         <v>73</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>74</v>
@@ -2084,13 +2081,13 @@
         <v>9</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>254</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>255</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>12</v>
@@ -2394,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:P3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2449,16 +2446,16 @@
         <v>144</v>
       </c>
       <c r="M1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>98</v>
       </c>
       <c r="O1" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>284</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2519,7 +2516,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>9</v>
@@ -2591,64 +2588,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>36</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="S1" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2874,8 +2871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B25D-02A3-4C2E-B650-20FDB3D7917E}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2947,22 +2944,22 @@
         <v>114</v>
       </c>
       <c r="R1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>237</v>
-      </c>
       <c r="U1" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3059,7 +3056,7 @@
         <v>9</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T3" t="s">
         <v>9</v>
@@ -3068,10 +3065,10 @@
         <v>9</v>
       </c>
       <c r="V3" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="W3" s="12" t="s">
         <v>282</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3209,16 +3206,16 @@
         <v>182</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -3770,10 +3767,10 @@
         <v>200</v>
       </c>
       <c r="Z1" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA1" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>251</v>
       </c>
       <c r="AB1" t="s">
         <v>201</v>
@@ -4308,7 +4305,7 @@
         <v>12</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>12</v>
@@ -4406,7 +4403,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>12</v>
@@ -4448,10 +4445,10 @@
         <v>208</v>
       </c>
       <c r="X8" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Z8" s="12" t="s">
         <v>12</v>
@@ -4552,10 +4549,10 @@
         <v>12</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA9" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AB9" s="12" t="s">
         <v>12</v>
@@ -4582,8 +4579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A75ED-C5E5-4ACC-91B4-7C1A95E78CD8}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4661,7 +4658,7 @@
         <v>144</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -4847,7 +4844,7 @@
         <v>12</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S4" s="8" t="s">
         <v>9</v>
@@ -4915,7 +4912,7 @@
         <v>12</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S5" s="8" t="s">
         <v>9</v>
@@ -4946,7 +4943,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>12</v>
@@ -5017,7 +5014,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>12</v>
@@ -5032,7 +5029,7 @@
         <v>12</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>12</v>
@@ -5249,10 +5246,10 @@
         <v>219</v>
       </c>
       <c r="O1" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -5778,8 +5775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488771E6-AEC9-43EB-8B07-DC7B8A4C4235}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5808,13 +5805,13 @@
         <v>56</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>58</v>
@@ -5823,16 +5820,16 @@
         <v>188</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>90</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>92</v>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata22feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata25feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67673137-CCDF-478B-8695-A42F03ED6649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF4FC10-1520-465D-979F-F4A62D2CF4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="16" activeTab="19" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -24,14 +24,16 @@
     <sheet name="AmendPetition" sheetId="12" r:id="rId9"/>
     <sheet name="CourtsDocuments" sheetId="13" r:id="rId10"/>
     <sheet name="CourtMinuteOrders" sheetId="9" r:id="rId11"/>
-    <sheet name="DocumentDistributions" sheetId="10" r:id="rId12"/>
-    <sheet name="RelatedReferrals" sheetId="11" r:id="rId13"/>
-    <sheet name="GeneratePetition" sheetId="2" r:id="rId14"/>
-    <sheet name="PetitionAllegations" sheetId="3" r:id="rId15"/>
-    <sheet name="Participants" sheetId="20" r:id="rId16"/>
-    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId17"/>
-    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId18"/>
-    <sheet name="CourtWorkItems" sheetId="19" r:id="rId19"/>
+    <sheet name="Related" sheetId="21" r:id="rId12"/>
+    <sheet name="DocumentDistributions" sheetId="10" r:id="rId13"/>
+    <sheet name="RelatedReferrals" sheetId="11" r:id="rId14"/>
+    <sheet name="GeneratePetition" sheetId="2" r:id="rId15"/>
+    <sheet name="PetitionAllegation" sheetId="3" r:id="rId16"/>
+    <sheet name="Participants" sheetId="20" r:id="rId17"/>
+    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId18"/>
+    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId19"/>
+    <sheet name="CourtWorkItems" sheetId="19" r:id="rId20"/>
+    <sheet name="ReleasesOfInformationAndConsent" sheetId="24" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="365">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -110,9 +112,6 @@
     <t>PARTICIPANTS_PRESENT_REMOTELY</t>
   </si>
   <si>
-    <t>TAFF_WORKER_PRESENT_IN_COURT</t>
-  </si>
-  <si>
     <t>STAFF_WORKER_PRESENT_REMOTELY</t>
   </si>
   <si>
@@ -875,40 +874,283 @@
     <t>Active - Submitted to court</t>
   </si>
   <si>
+    <t>OTHER_FINDING_DETAILS</t>
+  </si>
+  <si>
+    <t>DATE_OF_TERMINATION_OF_JURISDICTION</t>
+  </si>
+  <si>
+    <t>TERMINATION_OF_JURISDICTION_REASON</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Jurisdiction Terminated</t>
+  </si>
+  <si>
+    <t>Children Adopted</t>
+  </si>
+  <si>
+    <t>MULTI_KEY_ORDERS</t>
+  </si>
+  <si>
+    <t>CMO_ID</t>
+  </si>
+  <si>
+    <t>CMO_ID1</t>
+  </si>
+  <si>
+    <t>STRTP Placement - Granted</t>
+  </si>
+  <si>
+    <t>STRTP Placement - Denied</t>
+  </si>
+  <si>
+    <t>FOLIO_RECORD_ID</t>
+  </si>
+  <si>
+    <t>FOLIO_ID1</t>
+  </si>
+  <si>
+    <t>COURT_OFFICERS_NOTES_TAB</t>
+  </si>
+  <si>
+    <t>STAFF_WORKER_PRESENT_IN_COURT</t>
+  </si>
+  <si>
+    <t>DISCOVERY</t>
+  </si>
+  <si>
+    <t>NEXT_HEARING_DATE_AND_TIME</t>
+  </si>
+  <si>
+    <t>Autocase4201 worker 4201</t>
+  </si>
+  <si>
+    <t>SELECT_ADDRESS</t>
+  </si>
+  <si>
+    <t>METHOD_OF_DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>In-Person</t>
+  </si>
+  <si>
+    <t>Addendum Report</t>
+  </si>
+  <si>
+    <t>Hearing on a Petition</t>
+  </si>
+  <si>
+    <t>Court Report</t>
+  </si>
+  <si>
+    <t>Court Work Item Participants</t>
+  </si>
+  <si>
+    <t>NOTICE_ID</t>
+  </si>
+  <si>
+    <t>DISTRIBUTION_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>RECIPIENT_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>DISTRIBUTED_DOCUMENT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>METHOD_OF_DISTRIBUTION_VERIFY</t>
+  </si>
+  <si>
+    <t>NOTICE_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>DATE_SENT_VERIFY</t>
+  </si>
+  <si>
+    <t>OTHER_SERVICE_METHOD_VERIFY</t>
+  </si>
+  <si>
+    <t>ADDRESS_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>ADDRESSED_FOREIGN_CONSULATE_VERIFY</t>
+  </si>
+  <si>
+    <t>SEND_AUTHORIZED_REPRESENTATIVE_VERIFY</t>
+  </si>
+  <si>
+    <t>ADDRESS_LINE1_VERIFY</t>
+  </si>
+  <si>
+    <t>ADDRESS_LINE2_VERIFY</t>
+  </si>
+  <si>
+    <t>COUNTY_VERIFY</t>
+  </si>
+  <si>
+    <t>STATE_VERIFY</t>
+  </si>
+  <si>
+    <t>CITY_VERIFY</t>
+  </si>
+  <si>
+    <t>ZIPCODE_VERIFY</t>
+  </si>
+  <si>
+    <t>FOREIGN_CONSULATE_VERIFY</t>
+  </si>
+  <si>
+    <t>COURT_WORK_ITEM_VERIFY</t>
+  </si>
+  <si>
+    <t>PERSON_ADDRESS_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>CWI_PARTICIPANTID_VERIFY</t>
+  </si>
+  <si>
+    <t>District Attorney</t>
+  </si>
+  <si>
+    <t>Probate Court</t>
+  </si>
+  <si>
+    <t>Tribe</t>
+  </si>
+  <si>
+    <t>NOTICE_ID2</t>
+  </si>
+  <si>
+    <t>NOTICE_ID3</t>
+  </si>
+  <si>
+    <t>NOTICE_ID4</t>
+  </si>
+  <si>
+    <t>NOTICE_ID5</t>
+  </si>
+  <si>
+    <t>E-filling</t>
+  </si>
+  <si>
+    <t>Detention Report</t>
+  </si>
+  <si>
+    <t>RELEASES_OF_INFORMATION_AND_CONSENT_FORM_TAB</t>
+  </si>
+  <si>
+    <t>FOLIO_PERSON_ID</t>
+  </si>
+  <si>
+    <t>AUTHORIZATION_TYPE</t>
+  </si>
+  <si>
+    <t>ON_BEHALF_OF</t>
+  </si>
+  <si>
+    <t>TYPE_OF_CONSENT_ROI</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>SENSITIVE</t>
+  </si>
+  <si>
+    <t>SEALED</t>
+  </si>
+  <si>
+    <t>RELEASE_INFORMATION_AND_CONSENT_FORM_ID</t>
+  </si>
+  <si>
+    <t>RECORD_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>RELEASE_CONSENT_PROVIDEDBY_VERIFY</t>
+  </si>
+  <si>
+    <t>ACTIVE_VERIFY</t>
+  </si>
+  <si>
+    <t>AUTHORIZATION_BY_VERIFY</t>
+  </si>
+  <si>
+    <t>TYPE_OF_CONSENT_ROI_VERIFY</t>
+  </si>
+  <si>
+    <t>ON_BEHLFTO_VERIFY</t>
+  </si>
+  <si>
+    <t>PersonName1</t>
+  </si>
+  <si>
+    <t>Consent</t>
+  </si>
+  <si>
+    <t>JV 141 - Electronic Service</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>INACTIVE_REASON</t>
+  </si>
+  <si>
+    <t>Expired</t>
+  </si>
+  <si>
+    <t>RELEASE_INFORMATION_AND_CONSENT_FORM_ID1</t>
+  </si>
+  <si>
+    <t>CAPTURE_COURTDOCUMENT_ID</t>
+  </si>
+  <si>
+    <t>NOTICE_ID_INDEX</t>
+  </si>
+  <si>
+    <t>Oral - In-Person</t>
+  </si>
+  <si>
+    <t>RELEASES_OF_INFORMATION_AND_CONSENT_FORM_NEW_BTN</t>
+  </si>
+  <si>
+    <t>CLEAR_APPROVAL_SUPERVISOR</t>
+  </si>
+  <si>
     <t>Autocase4201 manager4201</t>
   </si>
   <si>
+    <t>Autocase 4201 Supervisor4201</t>
+  </si>
+  <si>
+    <t>autoText</t>
+  </si>
+  <si>
+    <t>PETITION_RULING_VERIFY</t>
+  </si>
+  <si>
+    <t>PETITION_RULING_SUBTYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>A: Physical Abuse</t>
+  </si>
+  <si>
+    <t>Approval Supervisor</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
     <t>RECALL_BUTTON</t>
   </si>
   <si>
-    <t>autoText</t>
-  </si>
-  <si>
-    <t>Autocase 4201 Supervisor4201</t>
-  </si>
-  <si>
-    <t>CLEAR_APPROVAL_SUPERVISOR</t>
-  </si>
-  <si>
-    <t>A: Physical Abuse</t>
-  </si>
-  <si>
     <t>STEP_NAME</t>
   </si>
   <si>
     <t>STATUS_TYPE</t>
-  </si>
-  <si>
-    <t>Approval Supervisor</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>PETITION_RULING_VERIFY</t>
-  </si>
-  <si>
-    <t>PETITION_RULING_SUBTYPE_VERIFY</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1000,6 +1242,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1359,75 +1608,75 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>120</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>121</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>122</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
         <v>123</v>
       </c>
-      <c r="M1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>124</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>125</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
         <v>126</v>
       </c>
-      <c r="Q1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" t="s">
-        <v>127</v>
-      </c>
       <c r="S1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U1" t="s">
+        <v>187</v>
+      </c>
+      <c r="V1" t="s">
         <v>188</v>
       </c>
-      <c r="V1" t="s">
-        <v>189</v>
-      </c>
       <c r="W1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Y1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -1439,7 +1688,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>9</v>
@@ -1481,7 +1730,7 @@
         <v>10</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>9</v>
@@ -1504,7 +1753,7 @@
     </row>
     <row r="3" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -1534,22 +1783,22 @@
         <v>12</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L3" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="N3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>9</v>
@@ -1581,7 +1830,7 @@
     </row>
     <row r="4" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -1611,22 +1860,22 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="N4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>9</v>
@@ -1658,7 +1907,7 @@
     </row>
     <row r="5" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -1688,22 +1937,22 @@
         <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="N5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>9</v>
@@ -1866,7 +2115,7 @@
         <v>12</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>9</v>
@@ -1924,28 +2173,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1974,10 +2223,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE28A1-6BE4-48AF-9A65-60EB9C68D2E0}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1999,7 +2248,7 @@
     <col min="18" max="18" width="40.1796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="8" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2010,55 +2259,73 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -2081,25 +2348,25 @@
         <v>9</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="L2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>12</v>
@@ -2114,6 +2381,178 @@
         <v>12</v>
       </c>
       <c r="S2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2124,11 +2563,67 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4940952E-C868-4873-B6FF-4F836CDED0DF}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
+  <dimension ref="A1:AT7"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2140,55 +2635,164 @@
     <col min="5" max="5" width="29.54296875" customWidth="1"/>
     <col min="6" max="6" width="19.1796875" customWidth="1"/>
     <col min="8" max="8" width="28.453125" customWidth="1"/>
-    <col min="12" max="12" width="29.453125" customWidth="1"/>
-    <col min="13" max="13" width="26.1796875" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" customWidth="1"/>
+    <col min="10" max="10" width="15.90625" customWidth="1"/>
+    <col min="11" max="11" width="24.7265625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="46.54296875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="20.7265625" customWidth="1"/>
+    <col min="14" max="14" width="29.453125" customWidth="1"/>
+    <col min="15" max="15" width="26.1796875" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" customWidth="1"/>
+    <col min="17" max="17" width="11.08984375" customWidth="1"/>
+    <col min="18" max="18" width="11.08984375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="20.54296875" style="8" customWidth="1"/>
+    <col min="20" max="20" width="25.36328125" customWidth="1"/>
+    <col min="21" max="21" width="31" style="8" customWidth="1"/>
+    <col min="45" max="45" width="11.81640625" customWidth="1"/>
+    <col min="46" max="46" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:46" s="14" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="AR1" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="AT1" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2201,23 +2805,702 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="8">
+        <v>1</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="8">
+        <v>2</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="8">
+        <v>3</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="8">
+        <v>4</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="R7" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8680FC0-F632-45A0-B6DA-7F92240C0A87}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -2248,26 +3531,26 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2309,7 +3592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8EB240-6841-4BB5-96BA-BA7B1D39BA18}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2340,16 +3623,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>6</v>
@@ -2375,7 +3658,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -2387,12 +3670,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2408,85 +3691,93 @@
     <col min="11" max="11" width="45.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M1" t="s">
-        <v>237</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N2" s="12" t="s">
@@ -2498,33 +3789,42 @@
       <c r="P2" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="N3" s="12" t="s">
@@ -2536,6 +3836,11 @@
       <c r="P3" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2543,7 +3848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD14753-29D0-4ED7-9032-5FEC34700482}">
   <dimension ref="A1:W4"/>
   <sheetViews>
@@ -2588,64 +3893,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="N1" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="S1" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2792,7 +4097,7 @@
     </row>
     <row r="4" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
@@ -2867,12 +4172,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B25D-02A3-4C2E-B650-20FDB3D7917E}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2894,7 +4199,7 @@
     <col min="15" max="15" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2905,43 +4210,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>114</v>
+      <c r="Q1" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>234</v>
@@ -2949,20 +4257,17 @@
       <c r="S1" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T1" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3011,64 +4316,89 @@
       <c r="P2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="T2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>10</v>
+      <c r="U2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="T3" t="s">
+        <v>356</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>282</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3076,7 +4406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B78A5E-5873-467A-B8DB-F33589FCB780}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3109,25 +4439,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3165,148 +4495,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57A754B-6C4D-4F46-AFB2-D2A6709D56D1}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3350,75 +4538,75 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
         <v>129</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
         <v>130</v>
       </c>
-      <c r="G1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>131</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>132</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>133</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>134</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>135</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>136</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>137</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>138</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>139</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>140</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>141</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
         <v>142</v>
       </c>
-      <c r="T1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>205</v>
+      </c>
+      <c r="W1" t="s">
         <v>143</v>
       </c>
-      <c r="V1" t="s">
-        <v>206</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>144</v>
       </c>
-      <c r="X1" t="s">
-        <v>145</v>
-      </c>
       <c r="Y1" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -3430,10 +4618,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>12</v>
@@ -3486,7 +4674,7 @@
     </row>
     <row r="3" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -3513,7 +4701,7 @@
         <v>12</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>12</v>
@@ -3549,13 +4737,13 @@
         <v>10</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y3" s="7" t="s">
         <v>12</v>
@@ -3563,7 +4751,7 @@
     </row>
     <row r="4" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -3626,7 +4814,7 @@
         <v>10</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W4" s="7" t="s">
         <v>9</v>
@@ -3640,6 +4828,310 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="Y5" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57A754B-6C4D-4F46-AFB2-D2A6709D56D1}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53244731-B345-4579-9EA1-6DF92DB7F6ED}">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3648,10 +5140,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3701,96 +5193,96 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>151</v>
+      </c>
+      <c r="R1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T1" t="s">
+        <v>194</v>
+      </c>
+      <c r="U1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V1" t="s">
+        <v>196</v>
+      </c>
+      <c r="W1" t="s">
+        <v>197</v>
+      </c>
+      <c r="X1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE1" t="s">
         <v>204</v>
       </c>
-      <c r="F1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O1" t="s">
-        <v>144</v>
-      </c>
-      <c r="P1" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>152</v>
-      </c>
-      <c r="R1" t="s">
-        <v>193</v>
-      </c>
-      <c r="S1" t="s">
-        <v>194</v>
-      </c>
-      <c r="T1" t="s">
-        <v>195</v>
-      </c>
-      <c r="U1" t="s">
-        <v>196</v>
-      </c>
-      <c r="V1" t="s">
-        <v>197</v>
-      </c>
-      <c r="W1" t="s">
-        <v>198</v>
-      </c>
-      <c r="X1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>205</v>
-      </c>
       <c r="AF1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -3805,7 +5297,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>12</v>
@@ -3829,7 +5321,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>9</v>
@@ -3888,7 +5380,7 @@
     </row>
     <row r="3" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -3909,7 +5401,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>12</v>
@@ -3983,7 +5475,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -4010,28 +5502,28 @@
         <v>12</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>12</v>
@@ -4081,7 +5573,7 @@
     </row>
     <row r="5" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -4108,7 +5600,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
@@ -4179,7 +5671,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="10">
         <v>1</v>
@@ -4197,10 +5689,10 @@
         <v>12</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>12</v>
@@ -4218,7 +5710,7 @@
         <v>10</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>9</v>
@@ -4293,19 +5785,19 @@
         <v>12</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>12</v>
@@ -4317,7 +5809,7 @@
         <v>10</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>9</v>
@@ -4397,58 +5889,58 @@
         <v>12</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="X8" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="X8" s="12" t="s">
-        <v>247</v>
-      </c>
       <c r="Y8" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Z8" s="12" t="s">
         <v>12</v>
@@ -4501,7 +5993,7 @@
         <v>12</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>12</v>
@@ -4540,7 +6032,7 @@
         <v>10</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X9" s="12" t="s">
         <v>12</v>
@@ -4549,10 +6041,10 @@
         <v>12</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA9" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB9" s="12" t="s">
         <v>12</v>
@@ -4567,6 +6059,104 @@
         <v>12</v>
       </c>
       <c r="AF9" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF10" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4579,8 +6169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A75ED-C5E5-4ACC-91B4-7C1A95E78CD8}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4604,66 +6194,66 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="R1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="U1" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>277</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -4676,10 +6266,10 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>12</v>
@@ -4725,7 +6315,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
@@ -4740,49 +6330,49 @@
         <v>12</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="U3" s="8" t="s">
         <v>9</v>
@@ -4793,7 +6383,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -4844,13 +6434,13 @@
         <v>12</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>273</v>
+        <v>354</v>
       </c>
       <c r="S4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U4" s="8" t="s">
         <v>9</v>
@@ -4861,7 +6451,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
@@ -4912,7 +6502,7 @@
         <v>12</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>276</v>
+        <v>355</v>
       </c>
       <c r="S5" s="8" t="s">
         <v>9</v>
@@ -4925,7 +6515,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
@@ -4943,7 +6533,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>12</v>
@@ -4993,7 +6583,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
@@ -5014,7 +6604,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>275</v>
+        <v>356</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>12</v>
@@ -5092,48 +6682,48 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -5145,28 +6735,28 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>12</v>
@@ -5188,7 +6778,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5228,28 +6818,28 @@
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>219</v>
-      </c>
       <c r="O1" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -5404,22 +6994,22 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>12</v>
@@ -5454,7 +7044,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
@@ -5527,10 +7117,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C0AE46-36C8-4825-95FA-018986A6B0B5}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5561,92 +7151,176 @@
     <col min="24" max="24" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="W1" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="X1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="Y1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AA1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="4" t="s">
+      <c r="AB1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5656,10 +7330,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA6C99-F580-4B4C-85D4-6F4C5FBF99B1}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5695,64 +7369,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="W1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -5765,6 +7439,69 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5775,8 +7512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488771E6-AEC9-43EB-8B07-DC7B8A4C4235}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5802,37 +7539,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>233</v>
-      </c>
       <c r="N1" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
@@ -5863,7 +7600,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -5909,7 +7646,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -5955,7 +7692,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
@@ -6001,7 +7738,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
@@ -6016,7 +7753,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>10</v>
@@ -6047,7 +7784,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -6097,12 +7834,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6323,19 +8061,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6360,11 +8099,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata25feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata26feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF4FC10-1520-465D-979F-F4A62D2CF4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F6AF4D-F86C-482B-A96C-6D3AE8D82374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="16" activeTab="19" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId18"/>
     <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId19"/>
     <sheet name="CourtWorkItems" sheetId="19" r:id="rId20"/>
-    <sheet name="ReleasesOfInformationAndConsent" sheetId="24" r:id="rId21"/>
+    <sheet name="ReleasesOfInformationAndConsent" sheetId="22" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="368">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -928,16 +928,100 @@
     <t>Autocase4201 worker 4201</t>
   </si>
   <si>
+    <t>testT4258</t>
+  </si>
+  <si>
+    <t>HEARING_PACKET_SUBMITTED_TO_COURT_DATE</t>
+  </si>
+  <si>
+    <t>Detention Report</t>
+  </si>
+  <si>
+    <t>E-filling</t>
+  </si>
+  <si>
     <t>SELECT_ADDRESS</t>
   </si>
   <si>
     <t>METHOD_OF_DISTRIBUTION</t>
   </si>
   <si>
+    <t>NOTICE_ID</t>
+  </si>
+  <si>
+    <t>NOTICE_ID_INDEX</t>
+  </si>
+  <si>
+    <t>DISTRIBUTION_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>CAPTURE_COURTDOCUMENT_ID</t>
+  </si>
+  <si>
+    <t>RECIPIENT_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>DISTRIBUTED_DOCUMENT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>METHOD_OF_DISTRIBUTION_VERIFY</t>
+  </si>
+  <si>
+    <t>NOTICE_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>DATE_SENT_VERIFY</t>
+  </si>
+  <si>
+    <t>OTHER_SERVICE_METHOD_VERIFY</t>
+  </si>
+  <si>
+    <t>ADDRESS_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>ADDRESSED_FOREIGN_CONSULATE_VERIFY</t>
+  </si>
+  <si>
+    <t>SEND_AUTHORIZED_REPRESENTATIVE_VERIFY</t>
+  </si>
+  <si>
+    <t>ADDRESS_LINE1_VERIFY</t>
+  </si>
+  <si>
+    <t>ADDRESS_LINE2_VERIFY</t>
+  </si>
+  <si>
+    <t>COUNTY_VERIFY</t>
+  </si>
+  <si>
+    <t>STATE_VERIFY</t>
+  </si>
+  <si>
+    <t>CITY_VERIFY</t>
+  </si>
+  <si>
+    <t>ZIPCODE_VERIFY</t>
+  </si>
+  <si>
+    <t>FOREIGN_CONSULATE_VERIFY</t>
+  </si>
+  <si>
+    <t>COURT_WORK_ITEM_VERIFY</t>
+  </si>
+  <si>
+    <t>PERSON_ADDRESS_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>CWI_PARTICIPANTID_VERIFY</t>
+  </si>
+  <si>
+    <t>Addendum Report</t>
+  </si>
+  <si>
     <t>In-Person</t>
   </si>
   <si>
-    <t>Addendum Report</t>
+    <t>Oral - In-Person</t>
   </si>
   <si>
     <t>Hearing on a Petition</t>
@@ -949,99 +1033,33 @@
     <t>Court Work Item Participants</t>
   </si>
   <si>
-    <t>NOTICE_ID</t>
-  </si>
-  <si>
-    <t>DISTRIBUTION_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>RECIPIENT_NAME_VERIFY</t>
-  </si>
-  <si>
-    <t>DISTRIBUTED_DOCUMENT_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>METHOD_OF_DISTRIBUTION_VERIFY</t>
-  </si>
-  <si>
-    <t>NOTICE_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>DATE_SENT_VERIFY</t>
-  </si>
-  <si>
-    <t>OTHER_SERVICE_METHOD_VERIFY</t>
-  </si>
-  <si>
-    <t>ADDRESS_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>ADDRESSED_FOREIGN_CONSULATE_VERIFY</t>
-  </si>
-  <si>
-    <t>SEND_AUTHORIZED_REPRESENTATIVE_VERIFY</t>
-  </si>
-  <si>
-    <t>ADDRESS_LINE1_VERIFY</t>
-  </si>
-  <si>
-    <t>ADDRESS_LINE2_VERIFY</t>
-  </si>
-  <si>
-    <t>COUNTY_VERIFY</t>
-  </si>
-  <si>
-    <t>STATE_VERIFY</t>
-  </si>
-  <si>
-    <t>CITY_VERIFY</t>
-  </si>
-  <si>
-    <t>ZIPCODE_VERIFY</t>
-  </si>
-  <si>
-    <t>FOREIGN_CONSULATE_VERIFY</t>
-  </si>
-  <si>
-    <t>COURT_WORK_ITEM_VERIFY</t>
-  </si>
-  <si>
-    <t>PERSON_ADDRESS_ID_VERIFY</t>
-  </si>
-  <si>
-    <t>CWI_PARTICIPANTID_VERIFY</t>
+    <t>NOTICE_ID2</t>
   </si>
   <si>
     <t>District Attorney</t>
   </si>
   <si>
+    <t>NOTICE_ID3</t>
+  </si>
+  <si>
     <t>Probate Court</t>
   </si>
   <si>
+    <t>NOTICE_ID4</t>
+  </si>
+  <si>
     <t>Tribe</t>
   </si>
   <si>
-    <t>NOTICE_ID2</t>
-  </si>
-  <si>
-    <t>NOTICE_ID3</t>
-  </si>
-  <si>
-    <t>NOTICE_ID4</t>
-  </si>
-  <si>
     <t>NOTICE_ID5</t>
   </si>
   <si>
-    <t>E-filling</t>
-  </si>
-  <si>
-    <t>Detention Report</t>
-  </si>
-  <si>
     <t>RELEASES_OF_INFORMATION_AND_CONSENT_FORM_TAB</t>
   </si>
   <si>
+    <t>RELEASES_OF_INFORMATION_AND_CONSENT_FORM_NEW_BTN</t>
+  </si>
+  <si>
     <t>FOLIO_PERSON_ID</t>
   </si>
   <si>
@@ -1057,6 +1075,9 @@
     <t>ACTIVE</t>
   </si>
   <si>
+    <t>INACTIVE_REASON</t>
+  </si>
+  <si>
     <t>SENSITIVE</t>
   </si>
   <si>
@@ -1096,27 +1117,12 @@
     <t>No</t>
   </si>
   <si>
-    <t>INACTIVE_REASON</t>
-  </si>
-  <si>
     <t>Expired</t>
   </si>
   <si>
     <t>RELEASE_INFORMATION_AND_CONSENT_FORM_ID1</t>
   </si>
   <si>
-    <t>CAPTURE_COURTDOCUMENT_ID</t>
-  </si>
-  <si>
-    <t>NOTICE_ID_INDEX</t>
-  </si>
-  <si>
-    <t>Oral - In-Person</t>
-  </si>
-  <si>
-    <t>RELEASES_OF_INFORMATION_AND_CONSENT_FORM_NEW_BTN</t>
-  </si>
-  <si>
     <t>CLEAR_APPROVAL_SUPERVISOR</t>
   </si>
   <si>
@@ -1129,13 +1135,16 @@
     <t>autoText</t>
   </si>
   <si>
+    <t>PETITION_ID</t>
+  </si>
+  <si>
+    <t>A: Physical Abuse</t>
+  </si>
+  <si>
     <t>PETITION_RULING_VERIFY</t>
   </si>
   <si>
     <t>PETITION_RULING_SUBTYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>A: Physical Abuse</t>
   </si>
   <si>
     <t>Approval Supervisor</t>
@@ -1172,7 +1181,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1215,6 +1224,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1228,7 +1243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1239,9 +1254,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1249,6 +1264,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1565,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956F4017-6A3B-4528-A576-ADBAA4CE45DC}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AK7" sqref="AK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1982,157 +2016,157 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
         <v>2</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" s="12" t="s">
+      <c r="D7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="T7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y7" s="12" t="s">
+      <c r="T7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2226,7 +2260,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2276,7 +2310,7 @@
       <c r="I1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>278</v>
       </c>
       <c r="K1" s="8" t="s">
@@ -2309,7 +2343,7 @@
       <c r="T1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>279</v>
       </c>
       <c r="V1" s="8" t="s">
@@ -2325,85 +2359,85 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y2" s="12" t="s">
+      <c r="L2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="8">
@@ -2430,7 +2464,7 @@
       <c r="I3" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="8" t="s">
@@ -2480,7 +2514,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="8">
@@ -2567,7 +2601,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2597,19 +2631,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2620,10 +2654,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
-  <dimension ref="A1:AT7"/>
+  <dimension ref="A1:AT6"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2635,21 +2669,8 @@
     <col min="5" max="5" width="29.54296875" customWidth="1"/>
     <col min="6" max="6" width="19.1796875" customWidth="1"/>
     <col min="8" max="8" width="28.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" customWidth="1"/>
-    <col min="10" max="10" width="15.90625" customWidth="1"/>
-    <col min="11" max="11" width="24.7265625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="46.54296875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="20.7265625" customWidth="1"/>
-    <col min="14" max="14" width="29.453125" customWidth="1"/>
-    <col min="15" max="15" width="26.1796875" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" customWidth="1"/>
-    <col min="17" max="17" width="11.08984375" customWidth="1"/>
-    <col min="18" max="18" width="11.08984375" style="8" customWidth="1"/>
-    <col min="19" max="19" width="20.54296875" style="8" customWidth="1"/>
-    <col min="20" max="20" width="25.36328125" customWidth="1"/>
-    <col min="21" max="21" width="31" style="8" customWidth="1"/>
-    <col min="45" max="45" width="11.81640625" customWidth="1"/>
-    <col min="46" max="46" width="11.90625" customWidth="1"/>
+    <col min="12" max="12" width="29.453125" customWidth="1"/>
+    <col min="13" max="13" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="14" customFormat="1" ht="87" x14ac:dyDescent="0.35">
@@ -2681,10 +2702,10 @@
         <v>82</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L1" s="14" t="s">
         <v>76</v>
@@ -2702,120 +2723,120 @@
         <v>35</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R1" s="14" t="s">
         <v>143</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="T1" s="14" t="s">
         <v>298</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z1" s="14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AB1" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AD1" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF1" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="AL1" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AP1" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="AL1" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="AM1" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="AN1" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="AO1" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="AP1" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AQ1" s="14" t="s">
-        <v>313</v>
-      </c>
       <c r="AR1" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AS1" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AT1" s="14" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>293</v>
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>9</v>
@@ -2824,7 +2845,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>179</v>
@@ -2930,13 +2951,13 @@
       </c>
     </row>
     <row r="3" spans="1:46" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -2961,165 +2982,165 @@
         <v>9</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>179</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="Q3" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="8">
+        <v>1</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="8">
-        <v>1</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>351</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>179</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>9</v>
@@ -3210,13 +3231,13 @@
       </c>
     </row>
     <row r="5" spans="1:46" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -3241,25 +3262,25 @@
         <v>9</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>179</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>9</v>
@@ -3350,13 +3371,13 @@
       </c>
     </row>
     <row r="6" spans="1:46" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -3381,25 +3402,25 @@
         <v>9</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>179</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>9</v>
@@ -3489,14 +3510,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="R7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3674,8 +3689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3695,152 +3710,139 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" t="s">
         <v>143</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
+      <c r="O1" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
+      <c r="B3" s="25">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25">
+        <v>1</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3852,8 +3854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD14753-29D0-4ED7-9032-5FEC34700482}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3953,216 +3955,216 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="W3" s="12" t="s">
+      <c r="D3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W4" s="8" t="s">
+      <c r="B4" s="28">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="28" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4176,8 +4178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B25D-02A3-4C2E-B650-20FDB3D7917E}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:P3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4248,23 +4250,23 @@
       <c r="P1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="T1" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>364</v>
+      <c r="T1" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="U1" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -4316,89 +4318,91 @@
       <c r="P2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="Q2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="31" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>361</v>
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="V3" s="32" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -4839,7 +4843,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A4" sqref="A4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4913,61 +4917,61 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="F3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="34">
+        <v>1</v>
+      </c>
+      <c r="C4" s="34">
+        <v>1</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="F4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4977,159 +4981,136 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53244731-B345-4579-9EA1-6DF92DB7F6ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267A8A15-1AB8-42C8-B989-147BD4CDB055}">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.7265625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="12" t="s">
+      <c r="K2" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5140,10 +5121,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5179,7 +5160,7 @@
     <col min="29" max="29" width="29.6328125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="38.453125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="42.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -5276,7 +5257,10 @@
       <c r="AE1" t="s">
         <v>204</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG1" s="8" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5377,6 +5361,9 @@
       <c r="AF2" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="AG2" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -5472,6 +5459,9 @@
       <c r="AF3" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="AG3" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
@@ -5570,6 +5560,9 @@
       <c r="AF4" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="AG4" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
@@ -5668,299 +5661,308 @@
       <c r="AF5" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="AG5" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="10" t="s">
+      <c r="I6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="O6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG6" s="10"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="O6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="16"/>
+    </row>
+    <row r="7" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="12" t="s">
+      <c r="I7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="12" t="s">
+      <c r="K7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="O7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF7" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="O7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="D8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="X8" s="12" t="s">
+      <c r="X8" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="Y8" s="12" t="s">
+      <c r="Y8" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="Z8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF8" s="12" t="s">
+      <c r="Z8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG8" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6061,102 +6063,209 @@
       <c r="AF9" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="AG9" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="12" t="s">
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="O10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="X10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF10" s="12" t="s">
+      <c r="O10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG10" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG11" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6167,10 +6276,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A75ED-C5E5-4ACC-91B4-7C1A95E78CD8}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:V7"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6183,469 +6292,490 @@
     <col min="21" max="21" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="V1" s="12" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="V1" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="B2" s="17">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="H2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="H3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="N3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="8" t="s">
+      <c r="N3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="U3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="U3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19">
         <v>2</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" s="8" t="s">
+      <c r="D4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="U4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="U4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19">
         <v>3</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="D5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="19">
+        <v>1</v>
+      </c>
+      <c r="C6" s="19">
         <v>4</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="D6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="H6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="19">
+        <v>1</v>
+      </c>
+      <c r="C7" s="19">
         <v>5</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V7" s="12" t="s">
+      <c r="D7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6775,10 +6905,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698A64C3-BE1D-47FD-AB7F-548C150FB5B6}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6993,121 +7123,204 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="B5" s="20">
+        <v>1</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="G5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B6" s="20">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20">
         <v>2</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="D6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7119,8 +7332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C0AE46-36C8-4825-95FA-018986A6B0B5}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7237,89 +7450,89 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="12" t="s">
+      <c r="H2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="X2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB2" s="12" t="s">
+      <c r="X2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7330,10 +7543,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA6C99-F580-4B4C-85D4-6F4C5FBF99B1}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7358,150 +7571,147 @@
     <col min="20" max="22" width="25.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="O3" s="1"/>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7513,7 +7723,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P7"/>
+      <selection sqref="A1:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7529,304 +7739,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="22" t="s">
         <v>91</v>
       </c>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="B2" s="22">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
+      <c r="B3" s="24">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="24">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
+      <c r="D4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="24">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24">
         <v>3</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
+      <c r="D5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="24">
+        <v>1</v>
+      </c>
+      <c r="C6" s="24">
         <v>4</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="D6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="G6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="11">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="24">
+        <v>1</v>
+      </c>
+      <c r="C7" s="24">
         <v>5</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
+      <c r="D7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7844,6 +8054,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -8060,15 +8279,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
   <ds:schemaRefs>
@@ -8080,6 +8290,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6095730-1FE4-4AF8-B1FC-43F1685DBB31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8098,14 +8316,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
